--- a/results/minimal_seats-Belgium.xlsx
+++ b/results/minimal_seats-Belgium.xlsx
@@ -19,64 +19,64 @@
     <t>Key</t>
   </si>
   <si>
-    <t>BAN</t>
-  </si>
-  <si>
-    <t>CD&amp;</t>
-  </si>
-  <si>
-    <t>CDH</t>
-  </si>
-  <si>
-    <t>ECO</t>
-  </si>
-  <si>
-    <t>FDF</t>
-  </si>
-  <si>
-    <t>FN-</t>
-  </si>
-  <si>
-    <t>G -</t>
-  </si>
-  <si>
-    <t>PRL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS </t>
-  </si>
-  <si>
-    <t>PVV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VU </t>
-  </si>
-  <si>
-    <t>sp.</t>
-  </si>
-  <si>
-    <t>Ope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR </t>
-  </si>
-  <si>
-    <t>LDD</t>
-  </si>
-  <si>
-    <t>N-V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP </t>
-  </si>
-  <si>
-    <t>PTB</t>
-  </si>
-  <si>
-    <t>PVD</t>
+    <t>BANAAN - Better Seeking Alternatives than Doing Nothing in Apathy (Beter Alternatieven Nastreven Als Apathisch Nietsdoen/ - , BANAAN), known until  as Radical Reformers fighting for an upright Society (ROSSEM, Radikale Omvormers Strijders en Strubbelaars voor een Eerlijke Maatschappij)</t>
+  </si>
+  <si>
+    <t>CD&amp;V - Christian Democratic and Flemish (Christen-Democratisch en Vlaams, CD&amp;V), known until 29 September 2001 as Christian People’s Party (CVP, Christelijke Volkspartij)</t>
+  </si>
+  <si>
+    <t>CDH - Democrat Humanist Centre (Centre Démocrate Humaniste, CDH), known until 18 May 2002 as Christian Social Party (PSC, / Parti social chrétien)</t>
+  </si>
+  <si>
+    <t>ECOLO - EcoIogists (Ecologistes pour I’organisation de luttes originales, ECOLO)</t>
+  </si>
+  <si>
+    <t>FDF-PPW - Francophone Democratic Front (Front democratique francophone_Pan pour la Wallonie, FDF-PPW)</t>
+  </si>
+  <si>
+    <t>FN-NF - National Front (Nationaal Front/ Front National, FN-NF)</t>
+  </si>
+  <si>
+    <t>G - Green (Groen, G), known until 15 November 2003 as Live differently (AGALEV, Anders gaan leven), known from 15 November 2003 until 12 January 2012 as Green! (G!, Groen!)</t>
+  </si>
+  <si>
+    <t>PRL - Liberal Reform Party (Parti réformateur liberal, PRL)</t>
+  </si>
+  <si>
+    <t>PS - Socialist Party (Parti socialiste, PS)</t>
+  </si>
+  <si>
+    <t>PVV - Party of Liberty and Progress ( Partij voor Vrijheid en Vooruitgang, PVV)</t>
+  </si>
+  <si>
+    <t>VB - Flemish Block (Vlaams Blok, VB)</t>
+  </si>
+  <si>
+    <t>VU - People's Union (Volksunie, VU)</t>
+  </si>
+  <si>
+    <t>sp.a - Socialist Party-Differently (Socialistische Partij Anders, sp.a), known until 13 October 2001 as Socialist Party (SP, SocialistischePartij)</t>
+  </si>
+  <si>
+    <t>Open VLD - Open Flemish Liberals and Democrats (Open VLD) (Open Vlaamse Liberalen Demokraten , Open VLD)</t>
+  </si>
+  <si>
+    <t>MR - Reform Movement ( Mouvement Réformateur, MR)</t>
+  </si>
+  <si>
+    <t>LDD - De Decker's List (Lijst De Decker, LDD)</t>
+  </si>
+  <si>
+    <t>N-VA - New Flemish Alliance (Nieuw-Vlaams Alliantie, N-VA)</t>
+  </si>
+  <si>
+    <t>PP - People's Party (Parti Populaire, PP)</t>
+  </si>
+  <si>
+    <t>PTB - Labour Party (Parti du Travail de Belgique, PTB)</t>
+  </si>
+  <si>
+    <t>PVDA-PTB - Labour Party (Partij van de Arbeid/Parti du Travail de Belgique, PVDA-PTB)</t>
   </si>
   <si>
     <t>1991</t>
@@ -534,25 +534,25 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>3.000000000000003</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>39</v>
       </c>
       <c r="D2">
-        <v>18.00000000000001</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>10.00000000000001</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>3.000000000000007</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>6.999999999999986</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>20</v>
@@ -570,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="N2">
-        <v>28.00000000000001</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -578,37 +578,37 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>29.00000000000001</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>12.00000000000001</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>6.000000000000002</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>2.000000000000001</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>5.000000000000004</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>18.00000000000001</v>
+        <v>18</v>
       </c>
       <c r="J3">
-        <v>21.00000000000001</v>
+        <v>21</v>
       </c>
       <c r="L3">
-        <v>11.00000000000001</v>
+        <v>11</v>
       </c>
       <c r="M3">
-        <v>5.000000000000005</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>20.00000000000001</v>
+        <v>20</v>
       </c>
       <c r="O3">
-        <v>21.00000000000001</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -616,37 +616,37 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>22.00000000000001</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>11.00000000000002</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>8.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>18</v>
       </c>
       <c r="J4">
-        <v>19.00000000000001</v>
+        <v>19</v>
       </c>
       <c r="L4">
         <v>15</v>
       </c>
       <c r="M4">
-        <v>8.000000000000011</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>14.00000000000002</v>
+        <v>14</v>
       </c>
       <c r="O4">
-        <v>23.00000000000001</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -689,37 +689,37 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>30.00000000000001</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>9.999999999999998</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>7.999999999999994</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>4.000000000000007</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>20.00000000000001</v>
+        <v>20</v>
       </c>
       <c r="L6">
-        <v>17.00000000000001</v>
+        <v>17</v>
       </c>
       <c r="N6">
-        <v>14.00000000000001</v>
+        <v>14</v>
       </c>
       <c r="O6">
-        <v>18.00000000000001</v>
+        <v>18</v>
       </c>
       <c r="P6">
-        <v>23.00000000000001</v>
+        <v>23</v>
       </c>
       <c r="Q6">
-        <v>4.999999999999994</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -730,16 +730,16 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>9.000000000000005</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>7.999999999999991</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>4.999999999999992</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>26.00000000000001</v>
+        <v>26</v>
       </c>
       <c r="L7">
         <v>12</v>
@@ -815,37 +815,37 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>5.000000000000014</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>13.00000000000001</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>2.000000000000019</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>7.999999999999984</v>
+        <v>8</v>
       </c>
       <c r="J9">
-        <v>20.00000000000001</v>
+        <v>20</v>
       </c>
       <c r="L9">
-        <v>18.00000000000001</v>
+        <v>18</v>
       </c>
       <c r="N9">
-        <v>9.000000000000014</v>
+        <v>9</v>
       </c>
       <c r="O9">
         <v>12</v>
       </c>
       <c r="P9">
-        <v>14.00000000000001</v>
+        <v>14</v>
       </c>
       <c r="R9">
         <v>25</v>
       </c>
       <c r="U9">
-        <v>12.00000000000002</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/results/minimal_seats-Belgium.xlsx
+++ b/results/minimal_seats-Belgium.xlsx
@@ -14,9 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Key</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="31">
+  <si>
+    <t>Value_1</t>
+  </si>
+  <si>
+    <t>Key_1</t>
+  </si>
+  <si>
+    <t>Key_2</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
   <si>
     <t>BANAAN - Better Seeking Alternatives than Doing Nothing in Apathy (Beter Alternatieven Nastreven Als Apathisch Nietsdoen/ - , BANAAN), known until  as Radical Reformers fighting for an upright Society (ROSSEM, Radikale Omvormers Strijders en Strubbelaars voor een Eerlijke Maatschappij)</t>
@@ -77,30 +107,6 @@
   </si>
   <si>
     <t>PVDA-PTB - Labour Party (Partij van de Arbeid/Parti du Travail de Belgique, PVDA-PTB)</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2019</t>
   </si>
 </sst>
 </file>
@@ -458,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,378 +480,1028 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>33</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>23</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>20</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>39</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>35</v>
-      </c>
-      <c r="K2">
-        <v>26</v>
-      </c>
-      <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>29</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>21</v>
-      </c>
-      <c r="L3">
-        <v>11</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
-        <v>20</v>
-      </c>
-      <c r="O3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
+      <c r="C94" t="s">
         <v>23</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>19</v>
-      </c>
-      <c r="L4">
-        <v>15</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
-      </c>
-      <c r="N4">
-        <v>14</v>
-      </c>
-      <c r="O4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-      <c r="L5">
-        <v>8</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>13</v>
-      </c>
-      <c r="O5">
-        <v>15</v>
-      </c>
-      <c r="P5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="L6">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>14</v>
-      </c>
-      <c r="O6">
-        <v>18</v>
-      </c>
-      <c r="P6">
-        <v>23</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>26</v>
-      </c>
-      <c r="L7">
-        <v>12</v>
-      </c>
-      <c r="N7">
-        <v>13</v>
-      </c>
-      <c r="O7">
-        <v>13</v>
-      </c>
-      <c r="P7">
-        <v>18</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>27</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>23</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>13</v>
-      </c>
-      <c r="O8">
-        <v>14</v>
-      </c>
-      <c r="P8">
-        <v>20</v>
-      </c>
-      <c r="R8">
-        <v>33</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="J9">
-        <v>20</v>
-      </c>
-      <c r="L9">
-        <v>18</v>
-      </c>
-      <c r="N9">
-        <v>9</v>
-      </c>
-      <c r="O9">
-        <v>12</v>
-      </c>
-      <c r="P9">
-        <v>14</v>
-      </c>
-      <c r="R9">
-        <v>25</v>
-      </c>
-      <c r="U9">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
